--- a/_site/timeline.xlsx
+++ b/_site/timeline.xlsx
@@ -297,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -387,6 +387,31 @@
         <color indexed="10"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -425,7 +450,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -441,6 +466,24 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -448,6 +491,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -489,13 +541,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -755,10 +807,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1326,10 +1378,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1580,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1640,7 +1692,7 @@
     <row r="4" ht="15.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="4">
-        <v>43737.833333333336</v>
+        <v>43738.833333333336</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>5</v>
@@ -1673,6 +1725,42 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,15 +1779,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="11" customWidth="1"/>
-    <col min="4" max="4" width="25.6719" style="11" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="46.8516" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="11" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="20" customWidth="1"/>
+    <col min="4" max="4" width="25.6719" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="46.8516" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="20" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
@@ -1738,7 +1826,7 @@
     </row>
     <row r="3" ht="15.95" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="12">
+      <c r="B3" s="21">
         <v>43609</v>
       </c>
       <c r="C3" t="s" s="3">
@@ -1750,20 +1838,20 @@
       <c r="E3" s="2">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F3" t="s" s="22">
         <v>16</v>
       </c>
       <c r="G3" s="2">
         <v>176</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="23">
         <f>G3*E3</f>
         <v>2992</v>
       </c>
     </row>
     <row r="4" ht="15.95" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="12">
+      <c r="B4" s="21">
         <v>43609</v>
       </c>
       <c r="C4" t="s" s="3">
@@ -1773,20 +1861,20 @@
       <c r="E4" s="2">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="F4" t="s" s="22">
         <v>17</v>
       </c>
       <c r="G4" s="2">
         <v>1.21</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="23">
         <f>G4*E4</f>
         <v>20.57</v>
       </c>
     </row>
     <row r="5" ht="15.95" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="12">
+      <c r="B5" s="21">
         <v>43609</v>
       </c>
       <c r="C5" t="s" s="3">
@@ -1796,20 +1884,20 @@
         <v>18</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="s" s="13">
+      <c r="F5" t="s" s="22">
         <v>16</v>
       </c>
       <c r="G5" s="2">
         <v>228</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="23">
         <f>G5*E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.95" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="12">
+      <c r="B6" s="21">
         <v>43609</v>
       </c>
       <c r="C6" t="s" s="3">
@@ -1817,20 +1905,20 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" t="s" s="13">
+      <c r="F6" t="s" s="22">
         <v>17</v>
       </c>
       <c r="G6" s="2">
         <v>1.21</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="23">
         <f>G6*E6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.95" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="12">
+      <c r="B7" s="21">
         <v>43609</v>
       </c>
       <c r="C7" t="s" s="3">
@@ -1840,20 +1928,20 @@
         <v>19</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" t="s" s="13">
+      <c r="F7" t="s" s="22">
         <v>16</v>
       </c>
       <c r="G7" s="2">
         <v>120</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="23">
         <f>G7*E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.95" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="12">
+      <c r="B8" s="21">
         <v>43609</v>
       </c>
       <c r="C8" t="s" s="3">
@@ -1861,20 +1949,20 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="13">
+      <c r="F8" t="s" s="22">
         <v>17</v>
       </c>
       <c r="G8" s="2">
         <v>1.21</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="23">
         <f>G8*E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="12">
+      <c r="B9" s="21">
         <v>43609</v>
       </c>
       <c r="C9" t="s" s="3">
@@ -1884,39 +1972,39 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="13">
+      <c r="F9" t="s" s="22">
         <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>190</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="23">
         <f>G9*E9</f>
         <v>190</v>
       </c>
     </row>
     <row r="10" ht="15.95" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="13">
+      <c r="F10" t="s" s="22">
         <v>22</v>
       </c>
       <c r="G10" s="2">
         <v>1.5</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="23">
         <f>G10*E10</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="11" ht="15.95" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="12">
+      <c r="B11" s="21">
         <v>43609</v>
       </c>
       <c r="C11" t="s" s="3">
@@ -1928,20 +2016,20 @@
       <c r="E11" s="2">
         <v>17</v>
       </c>
-      <c r="F11" t="s" s="13">
+      <c r="F11" t="s" s="22">
         <v>25</v>
       </c>
       <c r="G11" s="2">
         <v>39.5</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="23">
         <f>G11*E11</f>
         <v>671.5</v>
       </c>
     </row>
     <row r="12" ht="15.95" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="12">
+      <c r="B12" s="21">
         <v>43609</v>
       </c>
       <c r="C12" t="s" s="3">
@@ -1953,20 +2041,20 @@
       <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="13">
+      <c r="F12" t="s" s="22">
         <v>26</v>
       </c>
       <c r="G12" s="2">
         <v>4.5</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="23">
         <f>G12*E12</f>
         <v>76.5</v>
       </c>
     </row>
     <row r="13" ht="15.95" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="12">
+      <c r="B13" s="21">
         <v>43609</v>
       </c>
       <c r="C13" t="s" s="3">
@@ -1978,20 +2066,20 @@
       <c r="E13" s="2">
         <v>17</v>
       </c>
-      <c r="F13" t="s" s="13">
+      <c r="F13" t="s" s="22">
         <v>27</v>
       </c>
       <c r="G13" s="2">
         <v>10.5</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="23">
         <f>G13*E13</f>
         <v>178.5</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="12">
+      <c r="B14" s="21">
         <v>43609</v>
       </c>
       <c r="C14" t="s" s="3">
@@ -2003,21 +2091,21 @@
       <c r="E14" s="2">
         <v>17</v>
       </c>
-      <c r="F14" t="s" s="13">
+      <c r="F14" t="s" s="22">
         <v>30</v>
       </c>
       <c r="G14" s="2">
         <f>26/0.8</f>
         <v>32.5</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="23">
         <f>G14*E14</f>
         <v>552.5</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="12">
+      <c r="B15" s="21">
         <v>43609</v>
       </c>
       <c r="C15" t="s" s="3">
@@ -2029,20 +2117,20 @@
       <c r="E15" s="2">
         <v>17</v>
       </c>
-      <c r="F15" t="s" s="13">
+      <c r="F15" t="s" s="22">
         <v>32</v>
       </c>
       <c r="G15" s="2">
         <v>63</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="23">
         <f>G15*E15</f>
         <v>1071</v>
       </c>
     </row>
     <row r="16" ht="29.1" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="12">
+      <c r="B16" s="21">
         <v>43609</v>
       </c>
       <c r="C16" t="s" s="3">
@@ -2054,20 +2142,20 @@
       <c r="E16" s="2">
         <v>17</v>
       </c>
-      <c r="F16" t="s" s="13">
+      <c r="F16" t="s" s="22">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>34</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="23">
         <f>G16*E16</f>
         <v>578</v>
       </c>
     </row>
     <row r="17" ht="29.1" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="12">
+      <c r="B17" s="21">
         <v>43610</v>
       </c>
       <c r="C17" t="s" s="3">
@@ -2077,40 +2165,40 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="13">
+      <c r="F17" t="s" s="22">
         <v>36</v>
       </c>
       <c r="G17" s="2">
         <f>(456*1.1)/0.8</f>
         <v>627</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="23">
         <f>G17*E17</f>
         <v>627</v>
       </c>
     </row>
     <row r="18" ht="15.95" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="F18" t="s" s="13">
+      <c r="F18" t="s" s="22">
         <v>22</v>
       </c>
       <c r="G18" s="2">
         <v>1.5</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="23">
         <f>G18*E18</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="19" ht="29.1" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="12">
+      <c r="B19" s="21">
         <v>43610</v>
       </c>
       <c r="C19" t="s" s="3">
@@ -2122,20 +2210,20 @@
       <c r="E19" s="2">
         <v>17</v>
       </c>
-      <c r="F19" t="s" s="13">
+      <c r="F19" t="s" s="22">
         <v>38</v>
       </c>
       <c r="G19" s="2">
         <v>69</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="23">
         <f>G19*E19</f>
         <v>1173</v>
       </c>
     </row>
     <row r="20" ht="15.95" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="12">
+      <c r="B20" s="21">
         <v>43610</v>
       </c>
       <c r="C20" t="s" s="3">
@@ -2147,20 +2235,20 @@
       <c r="E20" s="2">
         <v>17</v>
       </c>
-      <c r="F20" t="s" s="13">
+      <c r="F20" t="s" s="22">
         <v>39</v>
       </c>
       <c r="G20" s="2">
         <v>12</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="23">
         <f>G20*E20</f>
         <v>204</v>
       </c>
     </row>
     <row r="21" ht="15.95" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="12">
+      <c r="B21" s="21">
         <v>43610</v>
       </c>
       <c r="C21" t="s" s="3">
@@ -2172,49 +2260,49 @@
       <c r="E21" s="2">
         <v>17</v>
       </c>
-      <c r="F21" t="s" s="13">
+      <c r="F21" t="s" s="22">
         <v>40</v>
       </c>
       <c r="G21" s="2">
         <v>90</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="23">
         <f>G21*E21</f>
         <v>1530</v>
       </c>
     </row>
     <row r="22" ht="15.95" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" t="s" s="15">
+      <c r="F22" t="s" s="24">
         <v>41</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="14">
+      <c r="H22" s="23">
         <f>SUM(H3:H21)</f>
         <v>9915.57</v>
       </c>
     </row>
     <row r="23" ht="15.95" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" ht="15.95" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
@@ -2235,14 +2323,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.1719" style="18" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="18" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="27" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11.1719" style="27" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="27" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85156" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
@@ -2289,7 +2377,7 @@
       <c r="E3" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="19">
+      <c r="F3" t="s" s="28">
         <v>52</v>
       </c>
       <c r="G3" t="s" s="3">
@@ -2310,7 +2398,7 @@
       <c r="E4" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="F4" t="s" s="20">
+      <c r="F4" t="s" s="29">
         <v>57</v>
       </c>
       <c r="G4" t="s" s="3">
@@ -2413,13 +2501,13 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
